--- a/HTML/0 Excel SRC Files/AR_CS Excel.xlsx
+++ b/HTML/0 Excel SRC Files/AR_CS Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208495B-C977-4DD5-8E78-19F0AF136F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D58CEF-91A4-4C1D-9810-5B6CB2D409FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
   <si>
     <t>Channel Name</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>ASP.NET</t>
+  </si>
+  <si>
+    <t>محمود سمير</t>
+  </si>
+  <si>
+    <t>Dynamics 365</t>
   </si>
 </sst>
 </file>
@@ -991,95 +997,95 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1364,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1408,215 +1414,215 @@
       <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>164</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>147</v>
+      <c r="G2" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="12" t="s">
-        <v>52</v>
+      <c r="G3" s="26"/>
+      <c r="H3" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>149</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>132</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="33"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="34" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="27" t="s">
         <v>130</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="26" t="s">
         <v>136</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="32" t="s">
         <v>166</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="26" t="s">
         <v>160</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="27" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="30" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="27" t="s">
         <v>67</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="14" t="s">
@@ -1624,178 +1630,178 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="27" t="s">
         <v>135</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="27" t="s">
         <v>169</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="26" t="s">
         <v>159</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="32" t="s">
         <v>138</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>139</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="27" t="s">
         <v>142</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="35"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="33" t="s">
         <v>140</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="26" t="s">
         <v>66</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -1803,43 +1809,43 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="36" t="s">
         <v>163</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="27" t="s">
         <v>165</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="26" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="27" t="s">
         <v>145</v>
       </c>
       <c r="H20" s="14" t="s">
@@ -1847,39 +1853,39 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="31" t="s">
         <v>158</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="26" t="s">
         <v>150</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="27" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="26" t="s">
         <v>127</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -1887,35 +1893,41 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="32" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="E24" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="28" t="s">
         <v>129</v>
       </c>
       <c r="H24" s="18" t="s">
@@ -1923,15 +1935,19 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="29"/>
       <c r="H25" s="12" t="s">
         <v>18</v>
       </c>
@@ -1950,41 +1966,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="50">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
+  <mergeCells count="51">
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="G22:G23"/>
@@ -2001,6 +1984,40 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="Elzero Web School " xr:uid="{25375E84-8A0F-4C8E-A0A6-129D9BAD3AD7}"/>
@@ -2038,7 +2055,7 @@
     <hyperlink ref="E22" r:id="rId32" display="https://www.youtube.com/user/quantum01010101/videos" xr:uid="{4839D384-BB0D-4495-8ACD-6D840A79B3C8}"/>
     <hyperlink ref="A24:A25" r:id="rId33" display="سامح دعبس" xr:uid="{E592D94A-ABB9-498E-99C8-C4836D80ADC9}"/>
     <hyperlink ref="G22:G23" r:id="rId34" display="Mobarmg" xr:uid="{0E9E9607-AEA1-41B9-A8D1-FED9A5CF1949}"/>
-    <hyperlink ref="G2:G3" r:id="rId35" display="احمد سمير" xr:uid="{68ACADA9-06C9-408E-B042-1F44723DC04A}"/>
+    <hyperlink ref="E24:E25" r:id="rId35" display="احمد سمير" xr:uid="{68ACADA9-06C9-408E-B042-1F44723DC04A}"/>
     <hyperlink ref="C4:C5" r:id="rId36" display="عمرو غنيم" xr:uid="{EA948888-F5C2-4319-A6B2-807171C7CADA}"/>
     <hyperlink ref="C22:C23" r:id="rId37" display="Metwally Labs" xr:uid="{FF1F0258-FD01-463E-BBA0-7EFE996C5D6A}"/>
     <hyperlink ref="A22:A23" r:id="rId38" display="حسين عبدالله" xr:uid="{FCC45CCE-788A-44C0-AE00-1FEF173B4598}"/>
@@ -2053,9 +2070,10 @@
     <hyperlink ref="A4:A5" r:id="rId44" display="Passionate Coders" xr:uid="{036E4D08-A0AB-425E-B03D-710C995B0636}"/>
     <hyperlink ref="G4:G5" r:id="rId45" display="Mostafa Ibrahim" xr:uid="{8A374258-CE17-4E11-8550-DCD25E8F2811}"/>
     <hyperlink ref="A10:A11" r:id="rId46" display="د احمد سالم" xr:uid="{D69CF332-3642-4C79-899F-2BB4F4909AD1}"/>
+    <hyperlink ref="G2:G3" r:id="rId47" display="محمود سمير" xr:uid="{F28C7996-D3E2-4694-A7CB-4838966DD576}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -2063,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F14294A-EB0E-47C9-9FD2-5D35C37F8E5D}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -2073,7 +2091,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="39" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2099,7 +2117,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="3" t="s">
         <v>100</v>
       </c>
@@ -2130,37 +2148,37 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="39" t="s">
         <v>111</v>
       </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="39" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2180,7 +2198,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="3" t="s">
         <v>119</v>
       </c>
@@ -2198,7 +2216,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="39" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="2"/>
@@ -2208,10 +2226,10 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="39" t="s">
         <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2221,7 +2239,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>180</v>
       </c>
@@ -2229,7 +2247,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="39" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="2"/>
@@ -2237,7 +2255,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2338,19 +2356,19 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="45" t="s">
         <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>151</v>
       </c>
       <c r="H1" s="5"/>
@@ -2363,78 +2381,78 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5"/>
       <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -2442,25 +2460,25 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2470,11 +2488,11 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="42"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
@@ -2482,41 +2500,41 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="47" t="s">
         <v>144</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="47" t="s">
         <v>141</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -2524,55 +2542,55 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="43" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="40" t="s">
         <v>82</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="43" t="s">
         <v>83</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -2580,39 +2598,39 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="43" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="48" t="s">
         <v>126</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="26" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -2620,77 +2638,77 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="26" t="s">
         <v>146</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="11"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="47"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="11"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="41" t="s">
         <v>88</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="41" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2698,75 +2716,75 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="41" t="s">
         <v>91</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="42"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="40"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="42"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="26" t="s">
         <v>143</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="47" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -2778,11 +2796,11 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="10" t="s">
         <v>26</v>
       </c>
@@ -2793,34 +2811,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A9:H9"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="A7:A8"/>
@@ -2837,6 +2827,34 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" display="Troubleshooter Youssef Shawky" xr:uid="{213BA889-93AF-4973-AA23-AD10EC8140E3}"/>
